--- a/яйцо.xlsx
+++ b/яйцо.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainex\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\test-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25755" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
   <si>
     <t>номер</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>расколоть яйцо на сковороду, послить. Подождать 3-4мин</t>
+  </si>
+  <si>
+    <t>сварить сильное раскрученное</t>
+  </si>
+  <si>
+    <t>яйцо, предварительно очень сильно раскрученное. 1л кипятка</t>
+  </si>
+  <si>
+    <t>сварить, в течении 8 мин яйцо</t>
+  </si>
+  <si>
+    <t>желток будет снаружи, белок внутри</t>
   </si>
 </sst>
 </file>
@@ -1000,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46:I46"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,198 +1749,178 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="47" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>41</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>112</v>
@@ -1939,73 +1931,73 @@
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>122</v>
@@ -2014,38 +2006,38 @@
         <v>112</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>127</v>
@@ -2054,24 +2046,24 @@
         <v>128</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>15</v>
@@ -2079,13 +2071,13 @@
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>133</v>
@@ -2094,24 +2086,48 @@
         <v>134</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>51</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -4240,6 +4256,14 @@
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
